--- a/medicine/Autisme/Lorna_Wing/Lorna_Wing.xlsx
+++ b/medicine/Autisme/Lorna_Wing/Lorna_Wing.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lorna Wing, née le 7 octobre 1928 et morte le 6 juin 2014[1], est une psychiatre britannique spécialiste de l'autisme.
-Docteur en psychiatrie et travailleuse sociale en milieu psychiatrique, membre du Scientific staff of the Medical Research Council’s Social Psychiatry jusqu'à son retrait en 1990, ses recherches concernent les désordres du spectre autistique et les difficultés d'apprentissage. Elle est psychiatre consultante de la National Autistic Society’s au Centre for Social and Communication Disorders, et elle-même mère d’un enfant autiste (sous la forme typique de l'autisme de Kanner)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorna Wing, née le 7 octobre 1928 et morte le 6 juin 2014, est une psychiatre britannique spécialiste de l'autisme.
+Docteur en psychiatrie et travailleuse sociale en milieu psychiatrique, membre du Scientific staff of the Medical Research Council’s Social Psychiatry jusqu'à son retrait en 1990, ses recherches concernent les désordres du spectre autistique et les difficultés d'apprentissage. Elle est psychiatre consultante de la National Autistic Society’s au Centre for Social and Communication Disorders, et elle-même mère d’un enfant autiste (sous la forme typique de l'autisme de Kanner).
 </t>
         </is>
       </c>
@@ -512,15 +524,17 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lorna Wing publie en 1964 Les enfants autistes[3], le premier d'une longue série d'ouvrages courts publiés par des associations d'aide. Mais son ouvrage de vulgarisation de référence parait en 1972 sous le titre Les enfants autistes, un guide pour les parents[4] qui sera traduit en de nombreuses langues et réédité de multiples fois[5]. Elle redéfinit alors le profil classique de l'autisme comme il était défini dans ces années là.
-En 1977, Lorna Wing et Judith Gould commencent une étude basée à l'hôpital Maudsley de Londres. Cette étude, qui consistera à recueillir des données sur 914 enfants dans le district de Camberwell, s'étendra jusqu'en 1979 et permettra de définir les critères futurs de la triade de Wing, ou triad of impairments[6].
-Mais elle se fait surtout connaitre en 1981, quand elle réactualise le travail de Hans Asperger datant de 1943 mais peu diffusé, en publiant un compte-rendu des travaux réalisés et une proposition pour définir un syndrome d'Asperger, sur la base de la description de 34 cas[7]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorna Wing publie en 1964 Les enfants autistes, le premier d'une longue série d'ouvrages courts publiés par des associations d'aide. Mais son ouvrage de vulgarisation de référence parait en 1972 sous le titre Les enfants autistes, un guide pour les parents qui sera traduit en de nombreuses langues et réédité de multiples fois. Elle redéfinit alors le profil classique de l'autisme comme il était défini dans ces années là.
+En 1977, Lorna Wing et Judith Gould commencent une étude basée à l'hôpital Maudsley de Londres. Cette étude, qui consistera à recueillir des données sur 914 enfants dans le district de Camberwell, s'étendra jusqu'en 1979 et permettra de définir les critères futurs de la triade de Wing, ou triad of impairments.
+Mais elle se fait surtout connaitre en 1981, quand elle réactualise le travail de Hans Asperger datant de 1943 mais peu diffusé, en publiant un compte-rendu des travaux réalisés et une proposition pour définir un syndrome d'Asperger, sur la base de la description de 34 cas. 
 Les cas sont empruntés à Hans Asperger ou proviennent de sa propre clinique. À partir de cette publication, la communauté internationale (surtout dans les pays anglo-saxons) va multiplier les recherches et les travaux pour tenter d'identifier le syndrome d'Asperger et pour le positionner dans les classifications par rapport à l'autisme de Kanner.
-Dès 1982, elle écrit sur l'idée d'une continuité entre l'autisme de Kanner reconnu et d'autres formes qui n'étaient jusqu'alors absolument pas assimilables[8]. Elle écrira plus tard ainsi avoir ouvert une boite de Pandore en présentant le syndrome d'asperger[9] mais ne le regrette pas et elle continue à rendre compte de l'évolution des critères de définition de l'autisme, par exemple en 2007 dans la revue Nature[10].
-En 1983, en collaboration avec E. Burgoine, elle présente trois caractères plus récurrents dans le syndrome d'Asperger et dans les troubles autistiques[11]. C'est l'origine de l'idée d'une triade autistique, ultérieurement largement reconnue et utilisée notamment dans les critères d'identification. C'est également un des maillons qui permet de parler de spectre autistique, une terminologie qui ne s'est diffusée que dans les années 1990 et qu'elle a reprise comme titre de l'un de ses livres paru en 2001[12].
-En 2006, Lorna Wing publie dans une revue de médecine départementale et de neurologie de l'enfant l'article Autisme, un désordre neurologique des premiers stades de développement du cerveau[13], rendant compte des découvertes les plus récentes sur les causes de l'autisme.
+Dès 1982, elle écrit sur l'idée d'une continuité entre l'autisme de Kanner reconnu et d'autres formes qui n'étaient jusqu'alors absolument pas assimilables. Elle écrira plus tard ainsi avoir ouvert une boite de Pandore en présentant le syndrome d'asperger mais ne le regrette pas et elle continue à rendre compte de l'évolution des critères de définition de l'autisme, par exemple en 2007 dans la revue Nature.
+En 1983, en collaboration avec E. Burgoine, elle présente trois caractères plus récurrents dans le syndrome d'Asperger et dans les troubles autistiques. C'est l'origine de l'idée d'une triade autistique, ultérieurement largement reconnue et utilisée notamment dans les critères d'identification. C'est également un des maillons qui permet de parler de spectre autistique, une terminologie qui ne s'est diffusée que dans les années 1990 et qu'elle a reprise comme titre de l'un de ses livres paru en 2001.
+En 2006, Lorna Wing publie dans une revue de médecine départementale et de neurologie de l'enfant l'article Autisme, un désordre neurologique des premiers stades de développement du cerveau, rendant compte des découvertes les plus récentes sur les causes de l'autisme.
 </t>
         </is>
       </c>
